--- a/Automation_MUI_TestReport.xlsx
+++ b/Automation_MUI_TestReport.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="34">
   <si>
     <t>TestCase Number</t>
   </si>
@@ -125,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="0"/>
-  <fonts count="1882">
+  <fonts count="1884">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -9527,8 +9527,18 @@
       <sz val="12.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="TIMES NEW ROMAN"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="TIMES NEW ROMAN"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="1880">
+  <fills count="1882">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18870,6 +18880,16 @@
     <fill>
       <patternFill>
         <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -18965,7 +18985,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1896">
+  <cellXfs count="1898">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -20894,6 +20914,8 @@
     <xf numFmtId="0" fontId="1879" fillId="1877" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1880" fillId="1878" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1881" fillId="1879" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1882" fillId="1880" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1883" fillId="1881" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -20964,7 +20986,7 @@
       <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1849" t="s">
+      <c r="G2" s="1897" t="s">
         <v>32</v>
       </c>
     </row>
